--- a/projectSources/분류 코드+약어.xlsx
+++ b/projectSources/분류 코드+약어.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sam\project\Sports-complex\projectSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458DC2C7-893D-4B4C-A303-E1A552F521E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6690865-7C7E-46F8-9B5D-AAC411D1B03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1245" windowWidth="20670" windowHeight="13350" xr2:uid="{146239E0-1A5F-46D3-B966-71416A8C306C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{146239E0-1A5F-46D3-B966-71416A8C306C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="128">
   <si>
     <t>팀장 BJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,18 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지하1층 1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하2층 2F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지하3층 3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1번코트 1C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +193,357 @@
   </si>
   <si>
     <t>풋살 FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내국인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이빙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밸리댄스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탁구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배드민턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테니스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스쿼시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로스핏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필라테스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테니스장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하2층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하3층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번코트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하1층 1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하2층 2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하3층 3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +584,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +732,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,14 +1081,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6759A26-3CC9-4F12-89E2-F263325409BC}">
-  <dimension ref="B1:T18"/>
+  <dimension ref="B1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="10.375" customWidth="1"/>
     <col min="17" max="17" width="8.75" customWidth="1"/>
@@ -777,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
@@ -799,7 +1160,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="7"/>
       <c r="T2" s="8" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -807,15 +1168,15 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="7"/>
       <c r="T3" s="8" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
@@ -853,10 +1214,10 @@
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
@@ -872,7 +1233,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="7"/>
       <c r="T6" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
@@ -907,10 +1268,10 @@
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
@@ -923,7 +1284,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
       <c r="T9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
@@ -946,10 +1307,10 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
@@ -962,7 +1323,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="7"/>
       <c r="T12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
@@ -1006,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>24</v>
       </c>
@@ -1014,12 +1375,1049 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>25</v>
       </c>
       <c r="P18" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
